--- a/extras/Hangman/lead_sorted.xlsx
+++ b/extras/Hangman/lead_sorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>14.96270084381104</v>
+        <v>15.92770862579346</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>14.80747294425964</v>
+        <v>14.1684513092041</v>
       </c>
     </row>
     <row r="4">
@@ -544,6 +544,38 @@
       </c>
       <c r="D7" t="n">
         <v>23.62345433235168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.978395462036133</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.544487237930298</v>
       </c>
     </row>
   </sheetData>
